--- a/Skupaj.xlsx
+++ b/Skupaj.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Faks\3. letnik\fp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristina\Desktop\2020_21\Financni_practicum\Deterministicna-polinomska-aproksimacijska-shema-pri-stetju-resitev-problema-nahrbtnika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6D5E77-CAEC-45B2-A822-2A06F7CD469D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31095" yWindow="-3855" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="31095" yWindow="-3855" windowWidth="21600" windowHeight="11505" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
-    <sheet name="List3" sheetId="3" r:id="rId2"/>
-    <sheet name="List4" sheetId="4" r:id="rId3"/>
-    <sheet name="List5" sheetId="5" r:id="rId4"/>
-    <sheet name="natančnost" sheetId="6" r:id="rId5"/>
-    <sheet name="List2" sheetId="2" r:id="rId6"/>
+    <sheet name="List2" sheetId="4" r:id="rId2"/>
+    <sheet name="List3" sheetId="5" r:id="rId3"/>
+    <sheet name="List4" sheetId="2" r:id="rId4"/>
+    <sheet name="List5" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
   <si>
     <t>epsilon</t>
   </si>
@@ -64,11 +62,47 @@
   <si>
     <t>epsilon 0,08</t>
   </si>
+  <si>
+    <t>1. Poiskus</t>
+  </si>
+  <si>
+    <t>2. Poiskus</t>
+  </si>
+  <si>
+    <t>3. Poiskus</t>
+  </si>
+  <si>
+    <t>4. Poiskus</t>
+  </si>
+  <si>
+    <t>7. Poiskus</t>
+  </si>
+  <si>
+    <t>5. Poiskus</t>
+  </si>
+  <si>
+    <t>6. Poiskus</t>
+  </si>
+  <si>
+    <t>8. Poiskus</t>
+  </si>
+  <si>
+    <t>9. Poiskus</t>
+  </si>
+  <si>
+    <t>10. Poiskus</t>
+  </si>
+  <si>
+    <t>Poiskus</t>
+  </si>
+  <si>
+    <t># 5. predmetov in 10 posikusov</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,1302 +152,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="sl-SI"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>List1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>epsilon 0,08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>List1!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.9305598735809331</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.7978196144103999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5143387317657471</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.570932149887085</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.4400444030761719</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.4488732814788818</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5165038108825679</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.296098947525024</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.291006326675415</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.1615395545959468</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-327D-44B3-95C5-50E89064BFA9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>List1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>epsilon 0,1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>List1!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.87277841567993164</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0804927349090581</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9667360782623291</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0983586311340332</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.004360437393188</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0354113578796391</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0841212272644039</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1312029361724849</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.389297246932983</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.4138491153717041</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-327D-44B3-95C5-50E89064BFA9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>List1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> epsilon 0,3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>List1!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.1093463897705078</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2432403564453125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.23437285423278811</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.24158453941345209</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.22741413116455081</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.24389839172363281</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.31715202331542969</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.37499547004699713</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.2732398509979248</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.25918912887573242</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-327D-44B3-95C5-50E89064BFA9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>List1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> epsilon 0,5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>List1!$E$2:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3.124332427978516E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.280491828918457E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.0786933898925781E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3726634979248047E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.3727588653564453E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1036355495452881</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1595721244812012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.380579948425293E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1017260551452637</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.17703413963317871</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-327D-44B3-95C5-50E89064BFA9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>List1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> epsilon  0,7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>List1!$F$2:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3.2136678695678711E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.4880390167236328E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5880317687988281E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.2486410140991211E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6864748001098633E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0653476715087891E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.4747781753540039E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4879913330078118E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.6849956512451172E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.7550868988037109E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-327D-44B3-95C5-50E89064BFA9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>List1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>epsilon  0,9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>List1!$G$2:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.096987724304199E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0889511108398441E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.692866325378418E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4198760986328118E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.3020248413085938E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.1244039535522461E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.5825462341308594E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.8893232345581051E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.3909082412719727E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.3825130462646484E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-327D-44B3-95C5-50E89064BFA9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1191212031"/>
-        <c:axId val="1191209535"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1191212031"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1191209535"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1191209535"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1191212031"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sl-SI"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="sl-SI"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="sl-SI"/>
-              <a:t>10</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="sl-SI" baseline="0"/>
-              <a:t> poizkusov, 5 predmetov</a:t>
-            </a:r>
-            <a:endParaRPr lang="sl-SI"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>List3!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>epsilon 0,1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>List3!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.737296342849731</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.237037181854248</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2594964504241939</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9904594421386719E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0449824333190918</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2723383903503418</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.077472448348999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9922237396240227E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.1943798065185547E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.3338191509246831</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B71A-4913-BB61-C382F5E8C106}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>List3!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> epsilon 0,3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>List3!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.26329660415649397</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2393600940704346</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.23431968688964841</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9877891540527344E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.24434638023376459</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.23838996887207031</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25502753257751459</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9775371551513672E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.9892196655273438E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.29421591758728027</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B71A-4913-BB61-C382F5E8C106}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>List3!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> epsilon 0,5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>List3!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>9.7738027572631836E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.0729236602783203E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.3753814697265625E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.9921226501464844E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.3749761581420898E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.3775997161865234E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8112125396728516E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.9788742065429692E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.9802017211914063E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.8731756210327148E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B71A-4913-BB61-C382F5E8C106}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>List3!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> epsilon  0,7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>List3!$E$2:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5.2858591079711907E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.2885770797729492E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.8614740371704102E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2482872009277339E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.7467718124389648E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7871589660644531E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.2478780746459961E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.9730491638183594E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.9611282348632813E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.7847261428833008E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B71A-4913-BB61-C382F5E8C106}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>List3!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>epsilon  0,9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>List3!$F$2:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3.7905693054199219E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7895927429199219E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1244754791259769E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0130405426025391E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1242132186889648E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7925729751586911E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.124237060546875E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.9706649780273438E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.9849700927734375E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0890932083129883E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B71A-4913-BB61-C382F5E8C106}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="213719391"/>
-        <c:axId val="213715647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="213719391"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="213715647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="213715647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="213719391"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sl-SI"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="sl-SI"/>
   <c:roundedCorners val="0"/>
@@ -1493,7 +232,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>List4!$A$4</c:f>
+              <c:f>List2!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1514,7 +253,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>List4!$A$5:$A$14</c:f>
+              <c:f>List2!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1551,7 +290,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D3F8-4F6F-AEC5-361AA6EA273D}"/>
             </c:ext>
@@ -1562,7 +301,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>List4!$B$4</c:f>
+              <c:f>List2!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1583,7 +322,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>List4!$B$5:$B$14</c:f>
+              <c:f>List2!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1615,12 +354,12 @@
                   <c:v>5.910083532333374</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.8041763305664063</c:v>
+                  <c:v>6.8041763305664062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D3F8-4F6F-AEC5-361AA6EA273D}"/>
             </c:ext>
@@ -1631,7 +370,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>List4!$C$4</c:f>
+              <c:f>List2!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1652,7 +391,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>List4!$C$5:$C$14</c:f>
+              <c:f>List2!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1689,7 +428,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D3F8-4F6F-AEC5-361AA6EA273D}"/>
             </c:ext>
@@ -1700,7 +439,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>List4!$D$4</c:f>
+              <c:f>List2!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1721,7 +460,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>List4!$D$5:$D$14</c:f>
+              <c:f>List2!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1758,7 +497,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D3F8-4F6F-AEC5-361AA6EA273D}"/>
             </c:ext>
@@ -1769,7 +508,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>List4!$E$4</c:f>
+              <c:f>List2!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1790,7 +529,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>List4!$E$5:$E$14</c:f>
+              <c:f>List2!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1827,7 +566,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D3F8-4F6F-AEC5-361AA6EA273D}"/>
             </c:ext>
@@ -1843,11 +582,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2014426863"/>
-        <c:axId val="2014418959"/>
+        <c:axId val="281251640"/>
+        <c:axId val="281252424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2014426863"/>
+        <c:axId val="281251640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1889,7 +628,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2014418959"/>
+        <c:crossAx val="281252424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1897,7 +636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2014418959"/>
+        <c:axId val="281252424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1948,7 +687,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2014426863"/>
+        <c:crossAx val="281251640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1993,14 +732,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2035,8 +774,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="sl-SI"/>
   <c:roundedCorners val="0"/>
@@ -2116,7 +855,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>List5!$B$2</c:f>
+              <c:f>List3!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2137,7 +876,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>List5!$B$3:$B$12</c:f>
+              <c:f>List3!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2174,7 +913,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-609B-4699-88DD-39602BA22CDB}"/>
             </c:ext>
@@ -2185,7 +924,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>List5!$C$2</c:f>
+              <c:f>List3!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2206,7 +945,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>List5!$C$3:$C$12</c:f>
+              <c:f>List3!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2243,7 +982,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-609B-4699-88DD-39602BA22CDB}"/>
             </c:ext>
@@ -2254,7 +993,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>List5!$D$2</c:f>
+              <c:f>List3!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2275,7 +1014,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>List5!$D$3:$D$12</c:f>
+              <c:f>List3!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2312,7 +1051,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-609B-4699-88DD-39602BA22CDB}"/>
             </c:ext>
@@ -2328,11 +1067,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="133150559"/>
-        <c:axId val="133150975"/>
+        <c:axId val="281253208"/>
+        <c:axId val="294225776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133150559"/>
+        <c:axId val="281253208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2374,7 +1113,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133150975"/>
+        <c:crossAx val="294225776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2382,7 +1121,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133150975"/>
+        <c:axId val="294225776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,7 +1172,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133150559"/>
+        <c:crossAx val="281253208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2478,14 +1217,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2520,8 +1259,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="sl-SI"/>
   <c:roundedCorners val="0"/>
@@ -2555,11 +1294,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sl-SI"/>
-              <a:t>Razlike</a:t>
+              <a:t>50</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="sl-SI" baseline="0"/>
-              <a:t> do pravih vrednosti</a:t>
+              <a:t> poizkusov, 5 predmetov</a:t>
             </a:r>
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
@@ -2597,15 +1336,16 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>natančnost!$A$3</c:f>
+              <c:f>List4!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2615,60 +1355,177 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>natančnost!$A$4:$A$13</c:f>
+              <c:f>List4!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.71006117283130976</c:v>
+                  <c:v>2.588620662689209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71006117283130976</c:v>
+                  <c:v>2.2260429859161381</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71006117283130976</c:v>
+                  <c:v>2.355986356735229</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71006117283130976</c:v>
+                  <c:v>0.2024576663970947</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71006117283130976</c:v>
+                  <c:v>2.0325896739959721</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71006117283130976</c:v>
+                  <c:v>2.3413457870483398</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71006117283130976</c:v>
+                  <c:v>1.973058938980103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.71006117283130976</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.71006117283130976</c:v>
+                  <c:v>2.332894086837769</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.71006117283130976</c:v>
+                  <c:v>2.1701874732971191</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1337389945983891</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.989100456237793E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9928684234619141E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9925098419189453E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0216209888458252</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.90058803558349609</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0357985496521001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.68220043182373047</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2444372177124019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4905195236206048E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0370790958404541</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.077441930770874</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9328281879425051</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0031507015228271</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0767383575439449</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.962557315826416</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0888786315917969E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3267228603363039</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.057934045791626</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.692626953125E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2538785934448242</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.70304560661315918</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.9926300048828121E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.9338452816009519</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2753651142120361</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.989155054092407</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.345253467559814</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0606975555419922</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.0963764190673828</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0032444000244141</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.2911539077758789E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.0355503559112549</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.347091913223267</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.19695043563842771</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.0159950256347661E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.9969215393066411E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.2340226173400879</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.0297107696533199</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.19947195053100589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-78D0-47A0-9700-633AA01B867D}"/>
+              <c16:uniqueId val="{00000000-AAD6-4C39-B9D5-3F8DCB5D10D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2677,7 +1534,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>natančnost!$B$3</c:f>
+              <c:f>List4!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2687,60 +1544,177 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>natančnost!$B$4:$B$13</c:f>
+              <c:f>List4!$C$2:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>5.2253187710366689E-2</c:v>
+                  <c:v>0.23935651779174799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2253187710366689E-2</c:v>
+                  <c:v>0.24334883689880371</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2253187710366689E-2</c:v>
+                  <c:v>0.24838805198669431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2253187710366689E-2</c:v>
+                  <c:v>2.1940946578979489E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2253187710366689E-2</c:v>
+                  <c:v>0.23636746406555181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2253187710366689E-2</c:v>
+                  <c:v>0.23041057586669919</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2253187710366689E-2</c:v>
+                  <c:v>0.22313165664672849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2253187710366689E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2253187710366689E-2</c:v>
+                  <c:v>0.24334907531738281</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.2253187710366689E-2</c:v>
+                  <c:v>0.28523659706115723</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25133657455444341</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9867630004882813E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9682807922363281E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9856433868408203E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23437237739562991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1795189380645752</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.22609043121337891</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.7792644500732422E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.24936175346374509</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.99017333984375E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2393903732299805</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.49966335296630859</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.230381965637207</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25715088844299322</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25442075729370123</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25684762001037598</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.9850215911865226E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.14161968231201169</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.26828193664550781</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.9569606781005859E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.2250714302062988</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.879185676574707E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.24032902717590329</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.23293280601501459</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.26073265075683588</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.23916769027709961</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.25431966781616211</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.36025333404541021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.24332165718078611</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.9571990966796884E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.44979500770568848</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.25648236274719238</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.293705940246582E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.8419189453125E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.24736714363098139</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.24048423767089841</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.902318000793457E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-78D0-47A0-9700-633AA01B867D}"/>
+              <c16:uniqueId val="{00000001-AAD6-4C39-B9D5-3F8DCB5D10D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2749,7 +1723,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>natančnost!$C$3</c:f>
+              <c:f>List4!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2759,60 +1733,177 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>natančnost!$C$4:$C$13</c:f>
+              <c:f>List4!$D$2:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>4.6686382197800214</c:v>
+                  <c:v>9.5744132995605469E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6686382197800214</c:v>
+                  <c:v>8.6769819259643555E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6686382197800214</c:v>
+                  <c:v>0.1098923683166504</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6686382197800214</c:v>
+                  <c:v>8.975982666015625E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6686382197800214</c:v>
+                  <c:v>9.674072265625E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6686382197800214</c:v>
+                  <c:v>9.1727495193481445E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6686382197800214</c:v>
+                  <c:v>9.3726396560668945E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6686382197800214</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6686382197800214</c:v>
+                  <c:v>9.4744682312011719E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6686382197800214</c:v>
+                  <c:v>0.18251204490661621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3725204467773438E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9730491638183594E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9659996032714839E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.975672721862793E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8895368576049798E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.147191047668457E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5156736373901371E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.3777666091918945E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.9635124206542969E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.9730501174926758E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.133641242980957</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.2778453826904297E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.14284515380859381</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.8428735733032227E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1112973690032959</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0725727081298828E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.0837507247924798E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1057169437408447</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.995086669921875E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0251445770263672E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1914710998535163E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.0785026550292969E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.8083038330078125E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.078669548034668E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.8108787536621094E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.1057169437408447</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.6372613906860352E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.8789463043212891E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.026153564453125E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.23935770988464361</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.1633081436157227E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.1000871658325201E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.4773063659667969E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.0891599655151367E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-78D0-47A0-9700-633AA01B867D}"/>
+              <c16:uniqueId val="{00000002-AAD6-4C39-B9D5-3F8DCB5D10D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2821,7 +1912,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>natančnost!$D$3</c:f>
+              <c:f>List4!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2831,60 +1922,177 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>natančnost!$D$4:$D$13</c:f>
+              <c:f>List4!$E$2:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1.4064325675346789</c:v>
+                  <c:v>4.7872066497802727E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4064325675346789</c:v>
+                  <c:v>4.5876026153564453E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4064325675346789</c:v>
+                  <c:v>5.5850505828857422E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4064325675346789</c:v>
+                  <c:v>3.9894580841064453E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4064325675346789</c:v>
+                  <c:v>4.6845197677612298E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4064325675346789</c:v>
+                  <c:v>4.9864768981933587E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4064325675346789</c:v>
+                  <c:v>5.9127330780029297E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4064325675346789</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4064325675346789</c:v>
+                  <c:v>5.0866365432739258E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4064325675346789</c:v>
+                  <c:v>0.10172915458679201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.686427116394043E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.995086669921875E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9611282348632813E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4880151748657227E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6954421997070309E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4880151748657227E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5649795532226559E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.9837350845336907E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.975433349609375E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3884983062744141E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5877218246459961E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.5907258987426758E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.3727350234985352E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.6893119812011719E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5650243759155273E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.2886495590209961E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.8842658996582031E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.9706649780273438E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6896934509277337E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6951799392700199E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.487919807434082E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.7568540573120117E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.6845912933349609E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.025172233581543E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.6848287582397461E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.2486648559570313E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.0864458084106452E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.9706649780273438E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.1077160835266113</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.2589187622070313E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.9865245819091797E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.4880151748657227E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.526209831237793E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5650033950805661E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-78D0-47A0-9700-633AA01B867D}"/>
+              <c16:uniqueId val="{00000003-AAD6-4C39-B9D5-3F8DCB5D10D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2893,7 +2101,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>natančnost!$E$3</c:f>
+              <c:f>List4!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2903,60 +2111,177 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>natančnost!$E$4:$E$13</c:f>
+              <c:f>List4!$F$2:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>5.8567955127580547</c:v>
+                  <c:v>3.8896560668945313E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8567955127580547</c:v>
+                  <c:v>2.792453765869141E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8567955127580547</c:v>
+                  <c:v>3.2940864562988281E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8567955127580547</c:v>
+                  <c:v>3.9892196655273438E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8567955127580547</c:v>
+                  <c:v>3.9179801940917969E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8567955127580547</c:v>
+                  <c:v>2.7955532073974609E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8567955127580547</c:v>
+                  <c:v>1.5036821365356451E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8567955127580547</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.8567955127580547</c:v>
+                  <c:v>3.2911300659179688E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8567955127580547</c:v>
+                  <c:v>6.2829732894897461E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1271219253540039E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9658966064453125E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9730491638183594E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0893564224243161E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.09708309173584E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0889034271240231E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5622854232788089E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8949737548828122E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.9945068359375E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7923583984375E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3910274505615227E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7924776077270511E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6901693344116211E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.1242132186889648E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.124547004699707E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2936820983886719E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5903215408325202E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6860456466674798E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.097011566162109E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7925491333007809E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.6003122329711911E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.2941341400146477E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1216621398925781E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.7926673889160163E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.1244039535522461E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.7924776077270511E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.9825859069824219E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.6844711303710938E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.1243085861206051E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.9919147491455078E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.792668342590332E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5647172927856449E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-78D0-47A0-9700-633AA01B867D}"/>
+              <c16:uniqueId val="{00000004-AAD6-4C39-B9D5-3F8DCB5D10D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2968,12 +2293,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1176751391"/>
-        <c:axId val="1176755135"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="294218720"/>
+        <c:axId val="294225384"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="1176751391"/>
+        <c:axId val="294218720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3015,7 +2341,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1176755135"/>
+        <c:crossAx val="294225384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3023,7 +2349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1176755135"/>
+        <c:axId val="294225384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3074,7 +2400,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1176751391"/>
+        <c:crossAx val="294218720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3119,14 +2445,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3161,8 +2487,651 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sl-SI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI"/>
+              <a:t>Razlike</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sl-SI" baseline="0"/>
+              <a:t> do pravih vrednosti</a:t>
+            </a:r>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List5!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>epsilon 0,1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>List5!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.71006117283130976</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71006117283130976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71006117283130976</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71006117283130976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71006117283130976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71006117283130976</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71006117283130976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71006117283130976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71006117283130976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71006117283130976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78D0-47A0-9700-633AA01B867D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List5!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> epsilon 0,3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>List5!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.2253187710366689E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2253187710366689E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2253187710366689E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2253187710366689E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2253187710366689E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2253187710366689E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2253187710366689E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2253187710366689E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2253187710366689E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2253187710366689E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-78D0-47A0-9700-633AA01B867D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List5!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> epsilon 0,5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>List5!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.6686382197800214</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6686382197800214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6686382197800214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6686382197800214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6686382197800214</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6686382197800214</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6686382197800214</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6686382197800214</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6686382197800214</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6686382197800214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-78D0-47A0-9700-633AA01B867D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List5!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> epsilon  0,7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>List5!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4064325675346789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4064325675346789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4064325675346789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4064325675346789</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4064325675346789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4064325675346789</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4064325675346789</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4064325675346789</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4064325675346789</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4064325675346789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-78D0-47A0-9700-633AA01B867D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List5!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>epsilon  0,9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>List5!$E$4:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.8567955127580547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8567955127580547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8567955127580547</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8567955127580547</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8567955127580547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8567955127580547</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8567955127580547</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8567955127580547</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8567955127580547</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8567955127580547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-78D0-47A0-9700-633AA01B867D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="294220288"/>
+        <c:axId val="294224992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="294220288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294224992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="294224992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294220288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sl-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="sl-SI"/>
   <c:roundedCorners val="0"/>
@@ -3206,6 +3175,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3246,7 +3216,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>natančnost!$A$23</c:f>
+              <c:f>List5!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3281,7 +3251,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>natančnost!$A$24:$A$33</c:f>
+              <c:f>List5!$A$24:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3319,7 +3289,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DDA6-469D-946A-E43099A1816A}"/>
             </c:ext>
@@ -3330,7 +3300,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>natančnost!$B$23</c:f>
+              <c:f>List5!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3365,7 +3335,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>natančnost!$B$24:$B$33</c:f>
+              <c:f>List5!$B$24:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3403,7 +3373,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DDA6-469D-946A-E43099A1816A}"/>
             </c:ext>
@@ -3414,7 +3384,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>natančnost!$C$23</c:f>
+              <c:f>List5!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3449,7 +3419,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>natančnost!$C$24:$C$33</c:f>
+              <c:f>List5!$C$24:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3487,7 +3457,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DDA6-469D-946A-E43099A1816A}"/>
             </c:ext>
@@ -3498,7 +3468,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>natančnost!$D$23</c:f>
+              <c:f>List5!$D$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3533,7 +3503,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>natančnost!$D$24:$D$33</c:f>
+              <c:f>List5!$D$24:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3571,7 +3541,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DDA6-469D-946A-E43099A1816A}"/>
             </c:ext>
@@ -3582,7 +3552,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>natančnost!$E$23</c:f>
+              <c:f>List5!$E$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3617,7 +3587,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>natančnost!$E$24:$E$33</c:f>
+              <c:f>List5!$E$24:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3655,7 +3625,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-DDA6-469D-946A-E43099A1816A}"/>
             </c:ext>
@@ -3671,11 +3641,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1191202879"/>
-        <c:axId val="1191189567"/>
+        <c:axId val="294222248"/>
+        <c:axId val="294222640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1191202879"/>
+        <c:axId val="294222248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3717,7 +3687,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1191189567"/>
+        <c:crossAx val="294222640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3725,7 +3695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1191189567"/>
+        <c:axId val="294222640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3776,7 +3746,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1191202879"/>
+        <c:crossAx val="294222248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3790,6 +3760,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3821,14 +3792,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3863,8 +3834,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="sl-SI"/>
   <c:roundedCorners val="0"/>
@@ -3949,7 +3920,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>natančnost!$A$36</c:f>
+              <c:f>List5!$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3970,7 +3941,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>natančnost!$A$37:$A$46</c:f>
+              <c:f>List5!$A$37:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4007,7 +3978,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E165-42D8-BE87-0E2D19AD61E5}"/>
             </c:ext>
@@ -4018,7 +3989,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>natančnost!$B$36</c:f>
+              <c:f>List5!$B$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4039,7 +4010,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>natančnost!$B$37:$B$46</c:f>
+              <c:f>List5!$B$37:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4076,7 +4047,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E165-42D8-BE87-0E2D19AD61E5}"/>
             </c:ext>
@@ -4087,7 +4058,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>natančnost!$C$36</c:f>
+              <c:f>List5!$C$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4108,7 +4079,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>natančnost!$C$37:$C$46</c:f>
+              <c:f>List5!$C$37:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4145,7 +4116,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E165-42D8-BE87-0E2D19AD61E5}"/>
             </c:ext>
@@ -4156,7 +4127,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>natančnost!$D$36</c:f>
+              <c:f>List5!$D$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4177,7 +4148,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>natančnost!$D$37:$D$46</c:f>
+              <c:f>List5!$D$37:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4214,7 +4185,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E165-42D8-BE87-0E2D19AD61E5}"/>
             </c:ext>
@@ -4225,7 +4196,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>natančnost!$E$36</c:f>
+              <c:f>List5!$E$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4246,7 +4217,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>natančnost!$E$37:$E$46</c:f>
+              <c:f>List5!$E$37:$E$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4283,7 +4254,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E165-42D8-BE87-0E2D19AD61E5}"/>
             </c:ext>
@@ -4299,11 +4270,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1176748895"/>
-        <c:axId val="1176745567"/>
+        <c:axId val="294223816"/>
+        <c:axId val="294219112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1176748895"/>
+        <c:axId val="294223816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4345,7 +4316,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1176745567"/>
+        <c:crossAx val="294219112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4353,7 +4324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1176745567"/>
+        <c:axId val="294219112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4404,7 +4375,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1176748895"/>
+        <c:crossAx val="294223816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4449,1242 +4420,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sl-SI"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="sl-SI"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="sl-SI"/>
-              <a:t>50</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="sl-SI" baseline="0"/>
-              <a:t> poizkusov, 5 predmetov</a:t>
-            </a:r>
-            <a:endParaRPr lang="sl-SI"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>List2!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>epsilon 0,1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>List2!$B$2:$B$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>2.588620662689209</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2260429859161381</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.355986356735229</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2024576663970947</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0325896739959721</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3413457870483398</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.973058938980103</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.332894086837769</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.1701874732971191</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.1337389945983891</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.989100456237793E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.9928684234619141E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.9925098419189453E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.0216209888458252</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.90058803558349609</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.0357985496521001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.68220043182373047</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.2444372177124019</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.4905195236206048E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.0370790958404541</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.077441930770874</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.9328281879425051</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.0031507015228271</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.0767383575439449</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.962557315826416</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.0888786315917969E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.3267228603363039</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.057934045791626</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.692626953125E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.2538785934448242</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.70304560661315918</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.9926300048828121E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.9338452816009519</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.2753651142120361</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.989155054092407</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.345253467559814</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.0606975555419922</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.0963764190673828</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.0032444000244141</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.2911539077758789E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.0355503559112549</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.347091913223267</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.19695043563842771</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.0159950256347661E-3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.9969215393066411E-3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.2340226173400879</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.0297107696533199</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.19947195053100589</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AAD6-4C39-B9D5-3F8DCB5D10D4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>List2!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> epsilon 0,3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>List2!$C$2:$C$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.23935651779174799</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.24334883689880371</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.24838805198669431</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.1940946578979489E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.23636746406555181</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.23041057586669919</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.22313165664672849</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.24334907531738281</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.28523659706115723</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.25133657455444341</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.9867630004882813E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.9682807922363281E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.9856433868408203E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.23437237739562991</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.1795189380645752</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.22609043121337891</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.7792644500732422E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.24936175346374509</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.99017333984375E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.2393903732299805</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.49966335296630859</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.230381965637207</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.25715088844299322</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.25442075729370123</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.25684762001037598</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.9850215911865226E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.14161968231201169</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.26828193664550781</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.9569606781005859E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.2250714302062988</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.879185676574707E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.24032902717590329</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.23293280601501459</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.26073265075683588</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.23916769027709961</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.25431966781616211</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.36025333404541021</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.24332165718078611</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.9571990966796884E-3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.44979500770568848</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.25648236274719238</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.293705940246582E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9.8419189453125E-4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.24736714363098139</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.24048423767089841</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.902318000793457E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AAD6-4C39-B9D5-3F8DCB5D10D4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>List2!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> epsilon 0,5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>List2!$D$2:$D$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>9.5744132995605469E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.6769819259643555E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1098923683166504</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.975982666015625E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.674072265625E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.1727495193481445E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.3726396560668945E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.4744682312011719E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.18251204490661621</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.3725204467773438E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.9730491638183594E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.9659996032714839E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.975672721862793E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.8895368576049798E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.147191047668457E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.5156736373901371E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.3777666091918945E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.9635124206542969E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.9730501174926758E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.133641242980957</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.2778453826904297E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.14284515380859381</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.8428735733032227E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.1112973690032959</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.0725727081298828E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.0837507247924798E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.1057169437408447</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.995086669921875E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.0251445770263672E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.1914710998535163E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9.0785026550292969E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.8083038330078125E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.078669548034668E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.8108787536621094E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.1057169437408447</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.6372613906860352E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8.8789463043212891E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.026153564453125E-3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.23935770988464361</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>9.1633081436157227E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.1000871658325201E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>8.4773063659667969E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9.0891599655151367E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AAD6-4C39-B9D5-3F8DCB5D10D4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>List2!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> epsilon  0,7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>List2!$E$2:$E$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>4.7872066497802727E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5876026153564453E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5850505828857422E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9894580841064453E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6845197677612298E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9864768981933587E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.9127330780029297E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.0866365432739258E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.10172915458679201</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.686427116394043E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.995086669921875E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.9611282348632813E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.4880151748657227E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6954421997070309E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.4880151748657227E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.5649795532226559E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.9837350845336907E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.975433349609375E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.3884983062744141E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.5877218246459961E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.5907258987426758E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.3727350234985352E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.6893119812011719E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.5650243759155273E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.2886495590209961E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.8842658996582031E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.9706649780273438E-4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.6896934509277337E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.6951799392700199E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.487919807434082E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.7568540573120117E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.6845912933349609E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.025172233581543E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.6848287582397461E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.2486648559570313E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.0864458084106452E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9.9706649780273438E-4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.1077160835266113</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.2589187622070313E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.9865245819091797E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.4880151748657227E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.526209831237793E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.5650033950805661E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AAD6-4C39-B9D5-3F8DCB5D10D4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>List2!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>epsilon  0,9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>List2!$F$2:$F$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>3.8896560668945313E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.792453765869141E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2940864562988281E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9892196655273438E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.9179801940917969E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7955532073974609E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5036821365356451E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.2911300659179688E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.2829732894897461E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.1271219253540039E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.9658966064453125E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.9730491638183594E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.0893564224243161E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.09708309173584E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.0889034271240231E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.5622854232788089E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.8949737548828122E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.9945068359375E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.7923583984375E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.3910274505615227E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.7924776077270511E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.6901693344116211E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.1242132186889648E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.124547004699707E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.2936820983886719E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.5903215408325202E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.6860456466674798E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.097011566162109E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.7925491333007809E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.6003122329711911E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.2941341400146477E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.1216621398925781E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.7926673889160163E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.1244039535522461E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.7924776077270511E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9.9825859069824219E-4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.6844711303710938E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.1243085861206051E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.9919147491455078E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.792668342590332E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.5647172927856449E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AAD6-4C39-B9D5-3F8DCB5D10D4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="138732431"/>
-        <c:axId val="213708159"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="138732431"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="213708159"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="213708159"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="138732431"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5959,86 +4702,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7549,7 +6212,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7657,6 +6320,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7667,6 +6335,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7698,6 +6371,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8052,7 +6728,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8160,11 +6836,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8175,11 +6846,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8211,9 +6877,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8568,1012 +7231,6 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10096,7 +7753,7 @@
         <xdr:cNvPr id="2" name="Grafikon 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F109AD56-A216-4C7F-A1DF-6C9C8DFDA95B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65ADCF10-98F9-4D4F-B8DD-BB7C13389167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10137,7 +7794,7 @@
         <xdr:cNvPr id="2" name="Grafikon 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32468E4D-8803-4D42-AFF8-9443B42A4516}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0820A695-E438-403A-B327-96FCA0EEC85F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10164,21 +7821,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafikon 1">
+        <xdr:cNvPr id="3" name="Grafikon 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65ADCF10-98F9-4D4F-B8DD-BB7C13389167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639C5064-6994-4DEC-A273-70F5879DC94D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10203,47 +7860,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafikon 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0820A695-E438-403A-B327-96FCA0EEC85F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -10260,7 +7876,7 @@
         <xdr:cNvPr id="3" name="Grafikon 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86AA2E61-2C25-480A-8830-AF84F18D39B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86AA2E61-2C25-480A-8830-AF84F18D39B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10296,7 +7912,7 @@
         <xdr:cNvPr id="6" name="Grafikon 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E45E47E8-A9EA-4470-817C-4183E03436DD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E45E47E8-A9EA-4470-817C-4183E03436DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10332,7 +7948,7 @@
         <xdr:cNvPr id="7" name="Grafikon 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906E060D-BE1B-4D93-BEBC-24B99B3C6694}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906E060D-BE1B-4D93-BEBC-24B99B3C6694}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10345,47 +7961,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafikon 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639C5064-6994-4DEC-A273-70F5879DC94D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10656,18 +8231,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -10688,7 +8263,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
       <c r="B2">
         <v>1.9305598735809331</v>
       </c>
@@ -10708,7 +8286,10 @@
         <v>1.096987724304199E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
       <c r="B3">
         <v>3.7978196144103999</v>
       </c>
@@ -10727,8 +8308,14 @@
       <c r="G3">
         <v>3.0889511108398441E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
       <c r="B4">
         <v>3.5143387317657471</v>
       </c>
@@ -10748,7 +8335,10 @@
         <v>2.692866325378418E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
       <c r="B5">
         <v>3.570932149887085</v>
       </c>
@@ -10768,7 +8358,10 @@
         <v>3.4198760986328118E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
       <c r="B6">
         <v>3.4400444030761719</v>
       </c>
@@ -10788,7 +8381,10 @@
         <v>4.3020248413085938E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
       <c r="B7">
         <v>4.4488732814788818</v>
       </c>
@@ -10808,7 +8404,10 @@
         <v>3.1244039535522461E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
       <c r="B8">
         <v>3.5165038108825679</v>
       </c>
@@ -10828,7 +8427,10 @@
         <v>6.5825462341308594E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
       <c r="B9">
         <v>3.296098947525024</v>
       </c>
@@ -10848,7 +8450,10 @@
         <v>2.8893232345581051E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
       <c r="B10">
         <v>3.291006326675415</v>
       </c>
@@ -10868,7 +8473,10 @@
         <v>3.3909082412719727E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
       <c r="B11">
         <v>3.1615395545959468</v>
       </c>
@@ -10886,6 +8494,241 @@
       </c>
       <c r="G11">
         <v>6.3825130462646484E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>55.50167441368103</v>
+      </c>
+      <c r="C2">
+        <v>6.4065134525299072</v>
+      </c>
+      <c r="D2">
+        <v>3.19370436668396</v>
+      </c>
+      <c r="E2">
+        <v>1.2177097797393801</v>
+      </c>
+      <c r="F2">
+        <v>0.71109724044799805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>10.264030456542971</v>
+      </c>
+      <c r="C3">
+        <v>1.188817501068115</v>
+      </c>
+      <c r="D3">
+        <v>0.4179224967956543</v>
+      </c>
+      <c r="E3">
+        <v>0.20548081398010251</v>
+      </c>
+      <c r="F3">
+        <v>0.12865495681762701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>54.939274311065667</v>
+      </c>
+      <c r="C4">
+        <v>6.2451601028442383</v>
+      </c>
+      <c r="D4">
+        <v>2.3242728710174561</v>
+      </c>
+      <c r="E4">
+        <v>1.276583671569824</v>
+      </c>
+      <c r="F4">
+        <v>0.77293133735656738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>57.575128555297852</v>
+      </c>
+      <c r="C5">
+        <v>6.3224854469299316</v>
+      </c>
+      <c r="D5">
+        <v>2.3505370616912842</v>
+      </c>
+      <c r="E5">
+        <v>1.7584242820739751</v>
+      </c>
+      <c r="F5">
+        <v>0.75026583671569824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0.7378995418548584</v>
+      </c>
+      <c r="C6">
+        <v>8.3806991577148438E-2</v>
+      </c>
+      <c r="D6">
+        <v>3.1914710998535163E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.7919063568115231E-2</v>
+      </c>
+      <c r="F6">
+        <v>1.296687126159668E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>55.868190765380859</v>
+      </c>
+      <c r="C7">
+        <v>6.7080998420715332</v>
+      </c>
+      <c r="D7">
+        <v>2.2400088310241699</v>
+      </c>
+      <c r="E7">
+        <v>1.221619606018066</v>
+      </c>
+      <c r="F7">
+        <v>0.75125908851623535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>57.791303873062127</v>
+      </c>
+      <c r="C8">
+        <v>6.247455358505249</v>
+      </c>
+      <c r="D8">
+        <v>2.2765638828277588</v>
+      </c>
+      <c r="E8">
+        <v>1.2190277576446531</v>
+      </c>
+      <c r="F8">
+        <v>0.75996518135070801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>57.392145156860352</v>
+      </c>
+      <c r="C9">
+        <v>6.2254796028137207</v>
+      </c>
+      <c r="D9">
+        <v>2.2868607044219971</v>
+      </c>
+      <c r="E9">
+        <v>1.1325347423553469</v>
+      </c>
+      <c r="F9">
+        <v>0.69514203071594238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>55.839039325714111</v>
+      </c>
+      <c r="C10">
+        <v>5.910083532333374</v>
+      </c>
+      <c r="D10">
+        <v>2.490674734115601</v>
+      </c>
+      <c r="E10">
+        <v>1.4771015644073491</v>
+      </c>
+      <c r="F10">
+        <v>0.75979232788085938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>56.637383222579963</v>
+      </c>
+      <c r="C11">
+        <v>6.8041763305664062</v>
+      </c>
+      <c r="D11">
+        <v>2.2330260276794429</v>
+      </c>
+      <c r="E11">
+        <v>1.1945614814758301</v>
+      </c>
+      <c r="F11">
+        <v>0.73468494415283203</v>
       </c>
     </row>
   </sheetData>
@@ -10894,12 +8737,154 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D56D0F9-244C-4C15-B09F-3C01BB80FA98}">
-  <dimension ref="A1:F11"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>66.077207565307617</v>
+      </c>
+      <c r="B3">
+        <v>35.485866546630859</v>
+      </c>
+      <c r="C3">
+        <v>20.911357641220089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>67.132873773574829</v>
+      </c>
+      <c r="B4">
+        <v>32.420477628707893</v>
+      </c>
+      <c r="C4">
+        <v>21.107584238052372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>63.733730316162109</v>
+      </c>
+      <c r="B5">
+        <v>33.390000343322747</v>
+      </c>
+      <c r="C5">
+        <v>21.071558237075809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>63.880689382553101</v>
+      </c>
+      <c r="B6">
+        <v>32.61893630027771</v>
+      </c>
+      <c r="C6">
+        <v>20.069388866424561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>64.99282693862915</v>
+      </c>
+      <c r="B7">
+        <v>32.268428802490227</v>
+      </c>
+      <c r="C7">
+        <v>19.729660749435421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>63.932693481445313</v>
+      </c>
+      <c r="B8">
+        <v>32.468699216842651</v>
+      </c>
+      <c r="C8">
+        <v>21.02324652671814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>66.523578405380249</v>
+      </c>
+      <c r="B9">
+        <v>34.742942810058587</v>
+      </c>
+      <c r="C9">
+        <v>20.746767282485958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>66.960593938827515</v>
+      </c>
+      <c r="B10">
+        <v>33.057887315750122</v>
+      </c>
+      <c r="C10">
+        <v>21.48981332778931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>66.045145988464355</v>
+      </c>
+      <c r="B11">
+        <v>33.16107964515686</v>
+      </c>
+      <c r="C11">
+        <v>21.57299375534058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>66.826548337936401</v>
+      </c>
+      <c r="B12">
+        <v>33.899451732635498</v>
+      </c>
+      <c r="C12">
+        <v>21.431432247161869</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10926,172 +8911,852 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>2.737296342849731</v>
+        <v>2.588620662689209</v>
       </c>
       <c r="C2">
-        <v>0.26329660415649397</v>
+        <v>0.23935651779174799</v>
       </c>
       <c r="D2">
-        <v>9.7738027572631836E-2</v>
+        <v>9.5744132995605469E-2</v>
       </c>
       <c r="E2">
-        <v>5.2858591079711907E-2</v>
+        <v>4.7872066497802727E-2</v>
       </c>
       <c r="F2">
-        <v>3.7905693054199219E-2</v>
+        <v>3.8896560668945313E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>2.237037181854248</v>
+        <v>2.2260429859161381</v>
       </c>
       <c r="C3">
-        <v>0.2393600940704346</v>
+        <v>0.24334883689880371</v>
       </c>
       <c r="D3">
-        <v>9.0729236602783203E-2</v>
+        <v>8.6769819259643555E-2</v>
       </c>
       <c r="E3">
-        <v>5.2885770797729492E-2</v>
+        <v>4.5876026153564453E-2</v>
       </c>
       <c r="F3">
-        <v>2.7895927429199219E-2</v>
+        <v>2.792453765869141E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>2.2594964504241939</v>
+        <v>2.355986356735229</v>
       </c>
       <c r="C4">
-        <v>0.23431968688964841</v>
+        <v>0.24838805198669431</v>
       </c>
       <c r="D4">
-        <v>9.3753814697265625E-2</v>
+        <v>0.1098923683166504</v>
       </c>
       <c r="E4">
-        <v>4.8614740371704102E-2</v>
+        <v>5.5850505828857422E-2</v>
       </c>
       <c r="F4">
-        <v>3.1244754791259769E-2</v>
+        <v>3.2940864562988281E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>3.9904594421386719E-2</v>
+        <v>0.2024576663970947</v>
       </c>
       <c r="C5">
-        <v>3.9877891540527344E-3</v>
+        <v>2.1940946578979489E-2</v>
       </c>
       <c r="D5">
-        <v>9.9921226501464844E-4</v>
+        <v>8.975982666015625E-3</v>
       </c>
       <c r="E5">
-        <v>2.2482872009277339E-3</v>
+        <v>3.9894580841064453E-3</v>
       </c>
       <c r="F5">
-        <v>1.0130405426025391E-3</v>
+        <v>3.9892196655273438E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>2.0449824333190918</v>
+        <v>2.0325896739959721</v>
       </c>
       <c r="C6">
-        <v>0.24434638023376459</v>
+        <v>0.23636746406555181</v>
       </c>
       <c r="D6">
-        <v>9.3749761581420898E-2</v>
+        <v>9.674072265625E-2</v>
       </c>
       <c r="E6">
-        <v>3.7467718124389648E-2</v>
+        <v>4.6845197677612298E-2</v>
       </c>
       <c r="F6">
-        <v>3.1242132186889648E-2</v>
+        <v>3.9179801940917969E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>2.2723383903503418</v>
+        <v>2.3413457870483398</v>
       </c>
       <c r="C7">
-        <v>0.23838996887207031</v>
+        <v>0.23041057586669919</v>
       </c>
       <c r="D7">
-        <v>8.3775997161865234E-2</v>
+        <v>9.1727495193481445E-2</v>
       </c>
       <c r="E7">
-        <v>4.7871589660644531E-2</v>
+        <v>4.9864768981933587E-2</v>
       </c>
       <c r="F7">
-        <v>2.7925729751586911E-2</v>
+        <v>2.7955532073974609E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>2.077472448348999</v>
+        <v>1.973058938980103</v>
       </c>
       <c r="C8">
-        <v>0.25502753257751459</v>
+        <v>0.22313165664672849</v>
       </c>
       <c r="D8">
-        <v>7.8112125396728516E-2</v>
+        <v>9.3726396560668945E-2</v>
       </c>
       <c r="E8">
-        <v>6.2478780746459961E-2</v>
+        <v>5.9127330780029297E-2</v>
       </c>
       <c r="F8">
-        <v>3.124237060546875E-2</v>
+        <v>1.5036821365356451E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>3.9922237396240227E-2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>3.9775371551513672E-3</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1.9788742065429692E-3</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>9.9730491638183594E-4</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>9.9706649780273438E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>3.1943798065185547E-2</v>
+        <v>2.332894086837769</v>
       </c>
       <c r="C10">
-        <v>3.9892196655273438E-3</v>
+        <v>0.24334907531738281</v>
       </c>
       <c r="D10">
-        <v>9.9802017211914063E-4</v>
+        <v>9.4744682312011719E-2</v>
       </c>
       <c r="E10">
-        <v>9.9611282348632813E-4</v>
+        <v>5.0866365432739258E-2</v>
       </c>
       <c r="F10">
-        <v>9.9849700927734375E-4</v>
+        <v>3.2911300659179688E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>2.3338191509246831</v>
+        <v>2.1701874732971191</v>
       </c>
       <c r="C11">
-        <v>0.29421591758728027</v>
+        <v>0.28523659706115723</v>
       </c>
       <c r="D11">
-        <v>9.8731756210327148E-2</v>
+        <v>0.18251204490661621</v>
       </c>
       <c r="E11">
-        <v>5.7847261428833008E-2</v>
+        <v>0.10172915458679201</v>
       </c>
       <c r="F11">
-        <v>4.0890932083129883E-2</v>
+        <v>6.2829732894897461E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3.1337389945983891</v>
+      </c>
+      <c r="C12">
+        <v>0.25133657455444341</v>
+      </c>
+      <c r="D12">
+        <v>9.3725204467773438E-2</v>
+      </c>
+      <c r="E12">
+        <v>4.686427116394043E-2</v>
+      </c>
+      <c r="F12">
+        <v>3.1271219253540039E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>3.989100456237793E-2</v>
+      </c>
+      <c r="C13">
+        <v>4.9867630004882813E-3</v>
+      </c>
+      <c r="D13">
+        <v>9.9730491638183594E-4</v>
+      </c>
+      <c r="E13">
+        <v>1.995086669921875E-3</v>
+      </c>
+      <c r="F13">
+        <v>9.9658966064453125E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2.9928684234619141E-3</v>
+      </c>
+      <c r="C14">
+        <v>9.9682807922363281E-4</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>3.9925098419189453E-2</v>
+      </c>
+      <c r="C15">
+        <v>3.9856433868408203E-3</v>
+      </c>
+      <c r="D15">
+        <v>1.9659996032714839E-3</v>
+      </c>
+      <c r="E15">
+        <v>9.9611282348632813E-4</v>
+      </c>
+      <c r="F15">
+        <v>9.9730491638183594E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2.0216209888458252</v>
+      </c>
+      <c r="C16">
+        <v>0.23437237739562991</v>
+      </c>
+      <c r="D16">
+        <v>8.975672721862793E-2</v>
+      </c>
+      <c r="E16">
+        <v>4.4880151748657227E-2</v>
+      </c>
+      <c r="F16">
+        <v>3.0893564224243161E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.90058803558349609</v>
+      </c>
+      <c r="C17">
+        <v>0.1795189380645752</v>
+      </c>
+      <c r="D17">
+        <v>3.8895368576049798E-2</v>
+      </c>
+      <c r="E17">
+        <v>1.6954421997070309E-2</v>
+      </c>
+      <c r="F17">
+        <v>1.09708309173584E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2.0357985496521001</v>
+      </c>
+      <c r="C18">
+        <v>0.22609043121337891</v>
+      </c>
+      <c r="D18">
+        <v>9.147191047668457E-2</v>
+      </c>
+      <c r="E18">
+        <v>4.4880151748657227E-2</v>
+      </c>
+      <c r="F18">
+        <v>3.0889034271240231E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.68220043182373047</v>
+      </c>
+      <c r="C19">
+        <v>7.7792644500732422E-2</v>
+      </c>
+      <c r="D19">
+        <v>2.5156736373901371E-2</v>
+      </c>
+      <c r="E19">
+        <v>1.5649795532226559E-2</v>
+      </c>
+      <c r="F19">
+        <v>1.5622854232788089E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2.2444372177124019</v>
+      </c>
+      <c r="C20">
+        <v>0.24936175346374509</v>
+      </c>
+      <c r="D20">
+        <v>8.3777666091918945E-2</v>
+      </c>
+      <c r="E20">
+        <v>4.9837350845336907E-2</v>
+      </c>
+      <c r="F20">
+        <v>2.8949737548828122E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>3.4905195236206048E-2</v>
+      </c>
+      <c r="C21">
+        <v>3.99017333984375E-3</v>
+      </c>
+      <c r="D21">
+        <v>9.9635124206542969E-4</v>
+      </c>
+      <c r="E21">
+        <v>9.975433349609375E-4</v>
+      </c>
+      <c r="F21">
+        <v>9.9945068359375E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2.0370790958404541</v>
+      </c>
+      <c r="C22">
+        <v>0.2393903732299805</v>
+      </c>
+      <c r="D22">
+        <v>8.9730501174926758E-2</v>
+      </c>
+      <c r="E22">
+        <v>5.3884983062744141E-2</v>
+      </c>
+      <c r="F22">
+        <v>2.7923583984375E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2.077441930770874</v>
+      </c>
+      <c r="C23">
+        <v>0.49966335296630859</v>
+      </c>
+      <c r="D23">
+        <v>0.133641242980957</v>
+      </c>
+      <c r="E23">
+        <v>4.5877218246459961E-2</v>
+      </c>
+      <c r="F23">
+        <v>3.3910274505615227E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1.9328281879425051</v>
+      </c>
+      <c r="C24">
+        <v>0.230381965637207</v>
+      </c>
+      <c r="D24">
+        <v>8.2778453826904297E-2</v>
+      </c>
+      <c r="E24">
+        <v>4.5907258987426758E-2</v>
+      </c>
+      <c r="F24">
+        <v>2.7924776077270511E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>2.0031507015228271</v>
+      </c>
+      <c r="C25">
+        <v>0.25715088844299322</v>
+      </c>
+      <c r="D25">
+        <v>0.14284515380859381</v>
+      </c>
+      <c r="E25">
+        <v>9.3727350234985352E-2</v>
+      </c>
+      <c r="F25">
+        <v>5.6901693344116211E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2.0767383575439449</v>
+      </c>
+      <c r="C26">
+        <v>0.25442075729370123</v>
+      </c>
+      <c r="D26">
+        <v>8.8428735733032227E-2</v>
+      </c>
+      <c r="E26">
+        <v>4.6893119812011719E-2</v>
+      </c>
+      <c r="F26">
+        <v>3.1242132186889648E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1.962557315826416</v>
+      </c>
+      <c r="C27">
+        <v>0.25684762001037598</v>
+      </c>
+      <c r="D27">
+        <v>0.1112973690032959</v>
+      </c>
+      <c r="E27">
+        <v>4.5650243759155273E-2</v>
+      </c>
+      <c r="F27">
+        <v>3.124547004699707E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>4.0888786315917969E-2</v>
+      </c>
+      <c r="C28">
+        <v>5.9850215911865226E-3</v>
+      </c>
+      <c r="D28">
+        <v>2.0725727081298828E-3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1.3267228603363039</v>
+      </c>
+      <c r="C29">
+        <v>0.14161968231201169</v>
+      </c>
+      <c r="D29">
+        <v>6.0837507247924798E-2</v>
+      </c>
+      <c r="E29">
+        <v>4.2886495590209961E-2</v>
+      </c>
+      <c r="F29">
+        <v>2.2936820983886719E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>2.057934045791626</v>
+      </c>
+      <c r="C30">
+        <v>0.26828193664550781</v>
+      </c>
+      <c r="D30">
+        <v>0.1057169437408447</v>
+      </c>
+      <c r="E30">
+        <v>5.8842658996582031E-2</v>
+      </c>
+      <c r="F30">
+        <v>3.5903215408325202E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>3.692626953125E-2</v>
+      </c>
+      <c r="C31">
+        <v>4.9569606781005859E-3</v>
+      </c>
+      <c r="D31">
+        <v>1.995086669921875E-3</v>
+      </c>
+      <c r="E31">
+        <v>9.9706649780273438E-4</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2.2538785934448242</v>
+      </c>
+      <c r="C32">
+        <v>0.2250714302062988</v>
+      </c>
+      <c r="D32">
+        <v>9.0251445770263672E-2</v>
+      </c>
+      <c r="E32">
+        <v>4.6896934509277337E-2</v>
+      </c>
+      <c r="F32">
+        <v>4.6860456466674798E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0.70304560661315918</v>
+      </c>
+      <c r="C33">
+        <v>7.879185676574707E-2</v>
+      </c>
+      <c r="D33">
+        <v>3.1914710998535163E-2</v>
+      </c>
+      <c r="E33">
+        <v>1.6951799392700199E-2</v>
+      </c>
+      <c r="F33">
+        <v>1.097011566162109E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2.9926300048828121E-3</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1.9338452816009519</v>
+      </c>
+      <c r="C35">
+        <v>0.24032902717590329</v>
+      </c>
+      <c r="D35">
+        <v>9.0785026550292969E-2</v>
+      </c>
+      <c r="E35">
+        <v>4.487919807434082E-2</v>
+      </c>
+      <c r="F35">
+        <v>2.7925491333007809E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>2.2753651142120361</v>
+      </c>
+      <c r="C37">
+        <v>0.23293280601501459</v>
+      </c>
+      <c r="D37">
+        <v>7.8083038330078125E-2</v>
+      </c>
+      <c r="E37">
+        <v>6.7568540573120117E-2</v>
+      </c>
+      <c r="F37">
+        <v>2.6003122329711911E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1.989155054092407</v>
+      </c>
+      <c r="C38">
+        <v>0.26073265075683588</v>
+      </c>
+      <c r="D38">
+        <v>9.078669548034668E-2</v>
+      </c>
+      <c r="E38">
+        <v>4.6845912933349609E-2</v>
+      </c>
+      <c r="F38">
+        <v>3.2941341400146477E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2.345253467559814</v>
+      </c>
+      <c r="C39">
+        <v>0.23916769027709961</v>
+      </c>
+      <c r="D39">
+        <v>7.8108787536621094E-2</v>
+      </c>
+      <c r="E39">
+        <v>5.025172233581543E-2</v>
+      </c>
+      <c r="F39">
+        <v>3.1216621398925781E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2.0606975555419922</v>
+      </c>
+      <c r="C40">
+        <v>0.25431966781616211</v>
+      </c>
+      <c r="D40">
+        <v>0.1057169437408447</v>
+      </c>
+      <c r="E40">
+        <v>5.6848287582397461E-2</v>
+      </c>
+      <c r="F40">
+        <v>3.7926673889160163E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2.0963764190673828</v>
+      </c>
+      <c r="C41">
+        <v>0.36025333404541021</v>
+      </c>
+      <c r="D41">
+        <v>8.6372613906860352E-2</v>
+      </c>
+      <c r="E41">
+        <v>6.2486648559570313E-2</v>
+      </c>
+      <c r="F41">
+        <v>3.1244039535522461E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>2.0032444000244141</v>
+      </c>
+      <c r="C42">
+        <v>0.24332165718078611</v>
+      </c>
+      <c r="D42">
+        <v>8.8789463043212891E-2</v>
+      </c>
+      <c r="E42">
+        <v>5.0864458084106452E-2</v>
+      </c>
+      <c r="F42">
+        <v>2.7924776077270511E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>3.2911539077758789E-2</v>
+      </c>
+      <c r="C43">
+        <v>4.9571990966796884E-3</v>
+      </c>
+      <c r="D43">
+        <v>1.026153564453125E-3</v>
+      </c>
+      <c r="E43">
+        <v>9.9706649780273438E-4</v>
+      </c>
+      <c r="F43">
+        <v>9.9825859069824219E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>2.0355503559112549</v>
+      </c>
+      <c r="C44">
+        <v>0.44979500770568848</v>
+      </c>
+      <c r="D44">
+        <v>0.23935770988464361</v>
+      </c>
+      <c r="E44">
+        <v>0.1077160835266113</v>
+      </c>
+      <c r="F44">
+        <v>5.6844711303710938E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2.347091913223267</v>
+      </c>
+      <c r="C45">
+        <v>0.25648236274719238</v>
+      </c>
+      <c r="D45">
+        <v>9.1633081436157227E-2</v>
+      </c>
+      <c r="E45">
+        <v>4.2589187622070313E-2</v>
+      </c>
+      <c r="F45">
+        <v>3.1243085861206051E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0.19695043563842771</v>
+      </c>
+      <c r="C46">
+        <v>2.293705940246582E-2</v>
+      </c>
+      <c r="D46">
+        <v>1.1000871658325201E-2</v>
+      </c>
+      <c r="E46">
+        <v>4.9865245819091797E-3</v>
+      </c>
+      <c r="F46">
+        <v>2.9919147491455078E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>3.0159950256347661E-3</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>2.9969215393066411E-3</v>
+      </c>
+      <c r="C48">
+        <v>9.8419189453125E-4</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>2.2340226173400879</v>
+      </c>
+      <c r="C49">
+        <v>0.24736714363098139</v>
+      </c>
+      <c r="D49">
+        <v>8.4773063659667969E-2</v>
+      </c>
+      <c r="E49">
+        <v>4.4880151748657227E-2</v>
+      </c>
+      <c r="F49">
+        <v>2.792668342590332E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>2.0297107696533199</v>
+      </c>
+      <c r="C50">
+        <v>0.24048423767089841</v>
+      </c>
+      <c r="D50">
+        <v>9.0891599655151367E-2</v>
+      </c>
+      <c r="E50">
+        <v>4.526209831237793E-2</v>
+      </c>
+      <c r="F50">
+        <v>1.5647172927856449E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0.19947195053100589</v>
+      </c>
+      <c r="C51">
+        <v>1.902318000793457E-2</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1.5650033950805661E-2</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11100,12 +9765,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F927CDAD-1B76-4F2F-B2E6-21A5C53537D5}">
-  <dimension ref="A1:E14"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11115,356 +9780,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>55.50167441368103</v>
-      </c>
-      <c r="B5">
-        <v>6.4065134525299072</v>
-      </c>
-      <c r="C5">
-        <v>3.19370436668396</v>
-      </c>
-      <c r="D5">
-        <v>1.2177097797393801</v>
-      </c>
-      <c r="E5">
-        <v>0.71109724044799805</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>10.264030456542971</v>
-      </c>
-      <c r="B6">
-        <v>1.188817501068115</v>
-      </c>
-      <c r="C6">
-        <v>0.4179224967956543</v>
-      </c>
-      <c r="D6">
-        <v>0.20548081398010251</v>
-      </c>
-      <c r="E6">
-        <v>0.12865495681762701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>54.939274311065667</v>
-      </c>
-      <c r="B7">
-        <v>6.2451601028442383</v>
-      </c>
-      <c r="C7">
-        <v>2.3242728710174561</v>
-      </c>
-      <c r="D7">
-        <v>1.276583671569824</v>
-      </c>
-      <c r="E7">
-        <v>0.77293133735656738</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>57.575128555297852</v>
-      </c>
-      <c r="B8">
-        <v>6.3224854469299316</v>
-      </c>
-      <c r="C8">
-        <v>2.3505370616912842</v>
-      </c>
-      <c r="D8">
-        <v>1.7584242820739751</v>
-      </c>
-      <c r="E8">
-        <v>0.75026583671569824</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.7378995418548584</v>
-      </c>
-      <c r="B9">
-        <v>8.3806991577148438E-2</v>
-      </c>
-      <c r="C9">
-        <v>3.1914710998535163E-2</v>
-      </c>
-      <c r="D9">
-        <v>1.7919063568115231E-2</v>
-      </c>
-      <c r="E9">
-        <v>1.296687126159668E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>55.868190765380859</v>
-      </c>
-      <c r="B10">
-        <v>6.7080998420715332</v>
-      </c>
-      <c r="C10">
-        <v>2.2400088310241699</v>
-      </c>
-      <c r="D10">
-        <v>1.221619606018066</v>
-      </c>
-      <c r="E10">
-        <v>0.75125908851623535</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>57.791303873062127</v>
-      </c>
-      <c r="B11">
-        <v>6.247455358505249</v>
-      </c>
-      <c r="C11">
-        <v>2.2765638828277588</v>
-      </c>
-      <c r="D11">
-        <v>1.2190277576446531</v>
-      </c>
-      <c r="E11">
-        <v>0.75996518135070801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>57.392145156860352</v>
-      </c>
-      <c r="B12">
-        <v>6.2254796028137207</v>
-      </c>
-      <c r="C12">
-        <v>2.2868607044219971</v>
-      </c>
-      <c r="D12">
-        <v>1.1325347423553469</v>
-      </c>
-      <c r="E12">
-        <v>0.69514203071594238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>55.839039325714111</v>
-      </c>
-      <c r="B13">
-        <v>5.910083532333374</v>
-      </c>
-      <c r="C13">
-        <v>2.490674734115601</v>
-      </c>
-      <c r="D13">
-        <v>1.4771015644073491</v>
-      </c>
-      <c r="E13">
-        <v>0.75979232788085938</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>56.637383222579963</v>
-      </c>
-      <c r="B14">
-        <v>6.8041763305664063</v>
-      </c>
-      <c r="C14">
-        <v>2.2330260276794429</v>
-      </c>
-      <c r="D14">
-        <v>1.1945614814758301</v>
-      </c>
-      <c r="E14">
-        <v>0.73468494415283203</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7930B05-4781-43A3-8DF4-0E643E154E07}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>66.077207565307617</v>
-      </c>
-      <c r="C3">
-        <v>35.485866546630859</v>
-      </c>
-      <c r="D3">
-        <v>20.911357641220089</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>67.132873773574829</v>
-      </c>
-      <c r="C4">
-        <v>32.420477628707893</v>
-      </c>
-      <c r="D4">
-        <v>21.107584238052372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>63.733730316162109</v>
-      </c>
-      <c r="C5">
-        <v>33.390000343322747</v>
-      </c>
-      <c r="D5">
-        <v>21.071558237075809</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>63.880689382553101</v>
-      </c>
-      <c r="C6">
-        <v>32.61893630027771</v>
-      </c>
-      <c r="D6">
-        <v>20.069388866424561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>64.99282693862915</v>
-      </c>
-      <c r="C7">
-        <v>32.268428802490227</v>
-      </c>
-      <c r="D7">
-        <v>19.729660749435421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>63.932693481445313</v>
-      </c>
-      <c r="C8">
-        <v>32.468699216842651</v>
-      </c>
-      <c r="D8">
-        <v>21.02324652671814</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>66.523578405380249</v>
-      </c>
-      <c r="C9">
-        <v>34.742942810058587</v>
-      </c>
-      <c r="D9">
-        <v>20.746767282485958</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>66.960593938827515</v>
-      </c>
-      <c r="C10">
-        <v>33.057887315750122</v>
-      </c>
-      <c r="D10">
-        <v>21.48981332778931</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>66.045145988464355</v>
-      </c>
-      <c r="C11">
-        <v>33.16107964515686</v>
-      </c>
-      <c r="D11">
-        <v>21.57299375534058</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>66.826548337936401</v>
-      </c>
-      <c r="C12">
-        <v>33.899451732635498</v>
-      </c>
-      <c r="D12">
-        <v>21.431432247161869</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4D649D-3F0D-4067-B76C-21C44CE2AC77}">
-  <dimension ref="A1:E46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
@@ -12044,895 +10359,6 @@
       </c>
       <c r="E46">
         <v>0.83525633799999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE201D3D-4723-4713-87DF-6DCC01A6EF4B}">
-  <dimension ref="A1:G51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>2.588620662689209</v>
-      </c>
-      <c r="C2">
-        <v>0.23935651779174799</v>
-      </c>
-      <c r="D2">
-        <v>9.5744132995605469E-2</v>
-      </c>
-      <c r="E2">
-        <v>4.7872066497802727E-2</v>
-      </c>
-      <c r="F2">
-        <v>3.8896560668945313E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>2.2260429859161381</v>
-      </c>
-      <c r="C3">
-        <v>0.24334883689880371</v>
-      </c>
-      <c r="D3">
-        <v>8.6769819259643555E-2</v>
-      </c>
-      <c r="E3">
-        <v>4.5876026153564453E-2</v>
-      </c>
-      <c r="F3">
-        <v>2.792453765869141E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2.355986356735229</v>
-      </c>
-      <c r="C4">
-        <v>0.24838805198669431</v>
-      </c>
-      <c r="D4">
-        <v>0.1098923683166504</v>
-      </c>
-      <c r="E4">
-        <v>5.5850505828857422E-2</v>
-      </c>
-      <c r="F4">
-        <v>3.2940864562988281E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>0.2024576663970947</v>
-      </c>
-      <c r="C5">
-        <v>2.1940946578979489E-2</v>
-      </c>
-      <c r="D5">
-        <v>8.975982666015625E-3</v>
-      </c>
-      <c r="E5">
-        <v>3.9894580841064453E-3</v>
-      </c>
-      <c r="F5">
-        <v>3.9892196655273438E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>2.0325896739959721</v>
-      </c>
-      <c r="C6">
-        <v>0.23636746406555181</v>
-      </c>
-      <c r="D6">
-        <v>9.674072265625E-2</v>
-      </c>
-      <c r="E6">
-        <v>4.6845197677612298E-2</v>
-      </c>
-      <c r="F6">
-        <v>3.9179801940917969E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>2.3413457870483398</v>
-      </c>
-      <c r="C7">
-        <v>0.23041057586669919</v>
-      </c>
-      <c r="D7">
-        <v>9.1727495193481445E-2</v>
-      </c>
-      <c r="E7">
-        <v>4.9864768981933587E-2</v>
-      </c>
-      <c r="F7">
-        <v>2.7955532073974609E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>1.973058938980103</v>
-      </c>
-      <c r="C8">
-        <v>0.22313165664672849</v>
-      </c>
-      <c r="D8">
-        <v>9.3726396560668945E-2</v>
-      </c>
-      <c r="E8">
-        <v>5.9127330780029297E-2</v>
-      </c>
-      <c r="F8">
-        <v>1.5036821365356451E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>2.332894086837769</v>
-      </c>
-      <c r="C10">
-        <v>0.24334907531738281</v>
-      </c>
-      <c r="D10">
-        <v>9.4744682312011719E-2</v>
-      </c>
-      <c r="E10">
-        <v>5.0866365432739258E-2</v>
-      </c>
-      <c r="F10">
-        <v>3.2911300659179688E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>2.1701874732971191</v>
-      </c>
-      <c r="C11">
-        <v>0.28523659706115723</v>
-      </c>
-      <c r="D11">
-        <v>0.18251204490661621</v>
-      </c>
-      <c r="E11">
-        <v>0.10172915458679201</v>
-      </c>
-      <c r="F11">
-        <v>6.2829732894897461E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>3.1337389945983891</v>
-      </c>
-      <c r="C12">
-        <v>0.25133657455444341</v>
-      </c>
-      <c r="D12">
-        <v>9.3725204467773438E-2</v>
-      </c>
-      <c r="E12">
-        <v>4.686427116394043E-2</v>
-      </c>
-      <c r="F12">
-        <v>3.1271219253540039E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>3.989100456237793E-2</v>
-      </c>
-      <c r="C13">
-        <v>4.9867630004882813E-3</v>
-      </c>
-      <c r="D13">
-        <v>9.9730491638183594E-4</v>
-      </c>
-      <c r="E13">
-        <v>1.995086669921875E-3</v>
-      </c>
-      <c r="F13">
-        <v>9.9658966064453125E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>2.9928684234619141E-3</v>
-      </c>
-      <c r="C14">
-        <v>9.9682807922363281E-4</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>3.9925098419189453E-2</v>
-      </c>
-      <c r="C15">
-        <v>3.9856433868408203E-3</v>
-      </c>
-      <c r="D15">
-        <v>1.9659996032714839E-3</v>
-      </c>
-      <c r="E15">
-        <v>9.9611282348632813E-4</v>
-      </c>
-      <c r="F15">
-        <v>9.9730491638183594E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>2.0216209888458252</v>
-      </c>
-      <c r="C16">
-        <v>0.23437237739562991</v>
-      </c>
-      <c r="D16">
-        <v>8.975672721862793E-2</v>
-      </c>
-      <c r="E16">
-        <v>4.4880151748657227E-2</v>
-      </c>
-      <c r="F16">
-        <v>3.0893564224243161E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>0.90058803558349609</v>
-      </c>
-      <c r="C17">
-        <v>0.1795189380645752</v>
-      </c>
-      <c r="D17">
-        <v>3.8895368576049798E-2</v>
-      </c>
-      <c r="E17">
-        <v>1.6954421997070309E-2</v>
-      </c>
-      <c r="F17">
-        <v>1.09708309173584E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>2.0357985496521001</v>
-      </c>
-      <c r="C18">
-        <v>0.22609043121337891</v>
-      </c>
-      <c r="D18">
-        <v>9.147191047668457E-2</v>
-      </c>
-      <c r="E18">
-        <v>4.4880151748657227E-2</v>
-      </c>
-      <c r="F18">
-        <v>3.0889034271240231E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>0.68220043182373047</v>
-      </c>
-      <c r="C19">
-        <v>7.7792644500732422E-2</v>
-      </c>
-      <c r="D19">
-        <v>2.5156736373901371E-2</v>
-      </c>
-      <c r="E19">
-        <v>1.5649795532226559E-2</v>
-      </c>
-      <c r="F19">
-        <v>1.5622854232788089E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>2.2444372177124019</v>
-      </c>
-      <c r="C20">
-        <v>0.24936175346374509</v>
-      </c>
-      <c r="D20">
-        <v>8.3777666091918945E-2</v>
-      </c>
-      <c r="E20">
-        <v>4.9837350845336907E-2</v>
-      </c>
-      <c r="F20">
-        <v>2.8949737548828122E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>3.4905195236206048E-2</v>
-      </c>
-      <c r="C21">
-        <v>3.99017333984375E-3</v>
-      </c>
-      <c r="D21">
-        <v>9.9635124206542969E-4</v>
-      </c>
-      <c r="E21">
-        <v>9.975433349609375E-4</v>
-      </c>
-      <c r="F21">
-        <v>9.9945068359375E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>2.0370790958404541</v>
-      </c>
-      <c r="C22">
-        <v>0.2393903732299805</v>
-      </c>
-      <c r="D22">
-        <v>8.9730501174926758E-2</v>
-      </c>
-      <c r="E22">
-        <v>5.3884983062744141E-2</v>
-      </c>
-      <c r="F22">
-        <v>2.7923583984375E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>2.077441930770874</v>
-      </c>
-      <c r="C23">
-        <v>0.49966335296630859</v>
-      </c>
-      <c r="D23">
-        <v>0.133641242980957</v>
-      </c>
-      <c r="E23">
-        <v>4.5877218246459961E-2</v>
-      </c>
-      <c r="F23">
-        <v>3.3910274505615227E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>1.9328281879425051</v>
-      </c>
-      <c r="C24">
-        <v>0.230381965637207</v>
-      </c>
-      <c r="D24">
-        <v>8.2778453826904297E-2</v>
-      </c>
-      <c r="E24">
-        <v>4.5907258987426758E-2</v>
-      </c>
-      <c r="F24">
-        <v>2.7924776077270511E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>2.0031507015228271</v>
-      </c>
-      <c r="C25">
-        <v>0.25715088844299322</v>
-      </c>
-      <c r="D25">
-        <v>0.14284515380859381</v>
-      </c>
-      <c r="E25">
-        <v>9.3727350234985352E-2</v>
-      </c>
-      <c r="F25">
-        <v>5.6901693344116211E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>2.0767383575439449</v>
-      </c>
-      <c r="C26">
-        <v>0.25442075729370123</v>
-      </c>
-      <c r="D26">
-        <v>8.8428735733032227E-2</v>
-      </c>
-      <c r="E26">
-        <v>4.6893119812011719E-2</v>
-      </c>
-      <c r="F26">
-        <v>3.1242132186889648E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>1.962557315826416</v>
-      </c>
-      <c r="C27">
-        <v>0.25684762001037598</v>
-      </c>
-      <c r="D27">
-        <v>0.1112973690032959</v>
-      </c>
-      <c r="E27">
-        <v>4.5650243759155273E-2</v>
-      </c>
-      <c r="F27">
-        <v>3.124547004699707E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>4.0888786315917969E-2</v>
-      </c>
-      <c r="C28">
-        <v>5.9850215911865226E-3</v>
-      </c>
-      <c r="D28">
-        <v>2.0725727081298828E-3</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>1.3267228603363039</v>
-      </c>
-      <c r="C29">
-        <v>0.14161968231201169</v>
-      </c>
-      <c r="D29">
-        <v>6.0837507247924798E-2</v>
-      </c>
-      <c r="E29">
-        <v>4.2886495590209961E-2</v>
-      </c>
-      <c r="F29">
-        <v>2.2936820983886719E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>2.057934045791626</v>
-      </c>
-      <c r="C30">
-        <v>0.26828193664550781</v>
-      </c>
-      <c r="D30">
-        <v>0.1057169437408447</v>
-      </c>
-      <c r="E30">
-        <v>5.8842658996582031E-2</v>
-      </c>
-      <c r="F30">
-        <v>3.5903215408325202E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>3.692626953125E-2</v>
-      </c>
-      <c r="C31">
-        <v>4.9569606781005859E-3</v>
-      </c>
-      <c r="D31">
-        <v>1.995086669921875E-3</v>
-      </c>
-      <c r="E31">
-        <v>9.9706649780273438E-4</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>2.2538785934448242</v>
-      </c>
-      <c r="C32">
-        <v>0.2250714302062988</v>
-      </c>
-      <c r="D32">
-        <v>9.0251445770263672E-2</v>
-      </c>
-      <c r="E32">
-        <v>4.6896934509277337E-2</v>
-      </c>
-      <c r="F32">
-        <v>4.6860456466674798E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>0.70304560661315918</v>
-      </c>
-      <c r="C33">
-        <v>7.879185676574707E-2</v>
-      </c>
-      <c r="D33">
-        <v>3.1914710998535163E-2</v>
-      </c>
-      <c r="E33">
-        <v>1.6951799392700199E-2</v>
-      </c>
-      <c r="F33">
-        <v>1.097011566162109E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>2.9926300048828121E-3</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>1.9338452816009519</v>
-      </c>
-      <c r="C35">
-        <v>0.24032902717590329</v>
-      </c>
-      <c r="D35">
-        <v>9.0785026550292969E-2</v>
-      </c>
-      <c r="E35">
-        <v>4.487919807434082E-2</v>
-      </c>
-      <c r="F35">
-        <v>2.7925491333007809E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>2.2753651142120361</v>
-      </c>
-      <c r="C37">
-        <v>0.23293280601501459</v>
-      </c>
-      <c r="D37">
-        <v>7.8083038330078125E-2</v>
-      </c>
-      <c r="E37">
-        <v>6.7568540573120117E-2</v>
-      </c>
-      <c r="F37">
-        <v>2.6003122329711911E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>1.989155054092407</v>
-      </c>
-      <c r="C38">
-        <v>0.26073265075683588</v>
-      </c>
-      <c r="D38">
-        <v>9.078669548034668E-2</v>
-      </c>
-      <c r="E38">
-        <v>4.6845912933349609E-2</v>
-      </c>
-      <c r="F38">
-        <v>3.2941341400146477E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>2.345253467559814</v>
-      </c>
-      <c r="C39">
-        <v>0.23916769027709961</v>
-      </c>
-      <c r="D39">
-        <v>7.8108787536621094E-2</v>
-      </c>
-      <c r="E39">
-        <v>5.025172233581543E-2</v>
-      </c>
-      <c r="F39">
-        <v>3.1216621398925781E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>2.0606975555419922</v>
-      </c>
-      <c r="C40">
-        <v>0.25431966781616211</v>
-      </c>
-      <c r="D40">
-        <v>0.1057169437408447</v>
-      </c>
-      <c r="E40">
-        <v>5.6848287582397461E-2</v>
-      </c>
-      <c r="F40">
-        <v>3.7926673889160163E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>2.0963764190673828</v>
-      </c>
-      <c r="C41">
-        <v>0.36025333404541021</v>
-      </c>
-      <c r="D41">
-        <v>8.6372613906860352E-2</v>
-      </c>
-      <c r="E41">
-        <v>6.2486648559570313E-2</v>
-      </c>
-      <c r="F41">
-        <v>3.1244039535522461E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>2.0032444000244141</v>
-      </c>
-      <c r="C42">
-        <v>0.24332165718078611</v>
-      </c>
-      <c r="D42">
-        <v>8.8789463043212891E-2</v>
-      </c>
-      <c r="E42">
-        <v>5.0864458084106452E-2</v>
-      </c>
-      <c r="F42">
-        <v>2.7924776077270511E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>3.2911539077758789E-2</v>
-      </c>
-      <c r="C43">
-        <v>4.9571990966796884E-3</v>
-      </c>
-      <c r="D43">
-        <v>1.026153564453125E-3</v>
-      </c>
-      <c r="E43">
-        <v>9.9706649780273438E-4</v>
-      </c>
-      <c r="F43">
-        <v>9.9825859069824219E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>2.0355503559112549</v>
-      </c>
-      <c r="C44">
-        <v>0.44979500770568848</v>
-      </c>
-      <c r="D44">
-        <v>0.23935770988464361</v>
-      </c>
-      <c r="E44">
-        <v>0.1077160835266113</v>
-      </c>
-      <c r="F44">
-        <v>5.6844711303710938E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>2.347091913223267</v>
-      </c>
-      <c r="C45">
-        <v>0.25648236274719238</v>
-      </c>
-      <c r="D45">
-        <v>9.1633081436157227E-2</v>
-      </c>
-      <c r="E45">
-        <v>4.2589187622070313E-2</v>
-      </c>
-      <c r="F45">
-        <v>3.1243085861206051E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>0.19695043563842771</v>
-      </c>
-      <c r="C46">
-        <v>2.293705940246582E-2</v>
-      </c>
-      <c r="D46">
-        <v>1.1000871658325201E-2</v>
-      </c>
-      <c r="E46">
-        <v>4.9865245819091797E-3</v>
-      </c>
-      <c r="F46">
-        <v>2.9919147491455078E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>3.0159950256347661E-3</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>2.9969215393066411E-3</v>
-      </c>
-      <c r="C48">
-        <v>9.8419189453125E-4</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>2.2340226173400879</v>
-      </c>
-      <c r="C49">
-        <v>0.24736714363098139</v>
-      </c>
-      <c r="D49">
-        <v>8.4773063659667969E-2</v>
-      </c>
-      <c r="E49">
-        <v>4.4880151748657227E-2</v>
-      </c>
-      <c r="F49">
-        <v>2.792668342590332E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>2.0297107696533199</v>
-      </c>
-      <c r="C50">
-        <v>0.24048423767089841</v>
-      </c>
-      <c r="D50">
-        <v>9.0891599655151367E-2</v>
-      </c>
-      <c r="E50">
-        <v>4.526209831237793E-2</v>
-      </c>
-      <c r="F50">
-        <v>1.5647172927856449E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>0.19947195053100589</v>
-      </c>
-      <c r="C51">
-        <v>1.902318000793457E-2</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>1.5650033950805661E-2</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
